--- a/components/download_templates/templates/Kaykalp_PHC_Non_Bedded_Excel_Import_Template.xlsx
+++ b/components/download_templates/templates/Kaykalp_PHC_Non_Bedded_Excel_Import_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp formats\Kaykalp Excel Import Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp Excel Import Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F3DCAC-535F-430C-B06F-6B441D50A558}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DEAEC9-F0F1-4531-A604-E8AB48B7D45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CB55A72-63E2-453E-B056-CE96C1E482A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CB55A72-63E2-453E-B056-CE96C1E482A6}"/>
   </bookViews>
   <sheets>
     <sheet name="PHC Non-Bedded Quarterly Datase" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2245,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8126A3A6-FE2F-4D76-B19D-14CD2FAF8F1B}">
   <dimension ref="A1:CKD183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2373,9 +2381,6 @@
         <v>0</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="AZ7" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:52" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -7429,8 +7434,8 @@
     <mergeCell ref="B160:C160"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E6 E8:E9 E11:E12 E14:E15 E17:E18 E20:E21 E23:E24 E26:E27 E32:E33 E36:E37 E39:E40 E42:E43 E45:E46 E48:E49 E51:E52 E54:E55 E57:E58 E60:E61 E63:E64 E67:E68 E70:E71 E73:E74 E76:E77 E79:E80 E82:E83 E85:E86 E88:E89 E91:E92 E94:E95 E98:E99 E101:E102 E104:E105 E107:E108 E110:E111 E113:E114 E116:E117 E119:E120 E122:E123 E125:E126 E129:E130 E132:E133 E135:E136 E138:E139 E141:E142 E145:E146 E148:E149 E151:E152 E154:E155 E157:E158 E161:E165 E167:E177 E179:E183" xr:uid="{3C15708C-D13F-4221-8E2F-2AD9681FCF5F}">
-      <formula1>$AZ$4:$AZ$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E6 E8:E9 E11:E12 E14:E15 E17:E18 E20:E21 E23:E24 E26:E27 E29:E30 E32:E33 E36:E37 E39:E40 E42:E43 E45:E46 E48:E49 E51:E52 E54:E55 E57:E58 E60:E61 E63:E64 E67:E68 E70:E71 E73:E74 E76:E77 E79:E80 E82:E83 E85:E86 E88:E89 E91:E92 E94:E95 E98:E99 E101:E102 E104:E105 E107:E108 E110:E111 E113:E114 E116:E117 E119:E120 E122:E123 E125:E126 E129:E130 E132:E133 E135:E136 E138:E139 E141:E142 E145:E146 E148:E149 E151:E152 E154:E155 E157:E158 E161:E165 E167:E177 E179:E183" xr:uid="{A58625AB-C5BA-4A50-B663-A55F96E50145}">
+      <formula1>$AZ$4:$AZ$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
